--- a/LU_Time_Series.xlsx
+++ b/LU_Time_Series.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\sandbar_process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>na</t>
   </si>
@@ -87,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -99,6 +104,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -379,19 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -408,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33034</v>
       </c>
@@ -425,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>33445</v>
       </c>
@@ -442,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>33512</v>
       </c>
@@ -459,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>33543</v>
       </c>
@@ -476,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>33892</v>
       </c>
@@ -493,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>34060</v>
       </c>
@@ -510,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>34250</v>
       </c>
@@ -527,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>34431</v>
       </c>
@@ -544,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34658</v>
       </c>
@@ -561,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>34813</v>
       </c>
@@ -578,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>34872</v>
       </c>
@@ -595,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35108</v>
       </c>
@@ -612,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35170</v>
       </c>
@@ -629,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35320</v>
       </c>
@@ -646,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35474</v>
       </c>
@@ -663,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35540</v>
       </c>
@@ -680,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35665</v>
       </c>
@@ -697,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35737</v>
       </c>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35740</v>
       </c>
@@ -731,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35900</v>
       </c>
@@ -748,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>36284</v>
       </c>
@@ -765,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>36602</v>
       </c>
@@ -782,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>36678</v>
       </c>
@@ -799,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>36757</v>
       </c>
@@ -816,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>36778</v>
       </c>
@@ -833,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37169</v>
       </c>
@@ -850,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37373</v>
       </c>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37519</v>
       </c>
@@ -884,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37736</v>
       </c>
@@ -901,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>37884</v>
       </c>
@@ -918,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>38139</v>
       </c>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>38304</v>
       </c>
@@ -952,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>38323</v>
       </c>
@@ -969,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>38479</v>
       </c>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38997</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39368</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39480</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39535</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39585</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39731</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40096</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40821</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41185</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41240</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41538</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41803</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41905</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42269</v>
       </c>
@@ -1221,6 +1227,23 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>42644</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
         <v>1</v>
       </c>
     </row>
